--- a/三九.xlsx
+++ b/三九.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="19220" tabRatio="500" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="19220" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="北京银行" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="上海电力" sheetId="9" r:id="rId9"/>
     <sheet name="中集集团" sheetId="10" r:id="rId10"/>
     <sheet name="上海电气" sheetId="11" r:id="rId11"/>
+    <sheet name="青岛啤酒" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="25">
   <si>
     <t>date</t>
   </si>
@@ -98,6 +99,24 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>盈亏</t>
+  </si>
+  <si>
+    <r>
+      <t>WR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>见底，触及中轨</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -171,8 +190,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="155">
+  <cellStyleXfs count="167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -336,7 +367,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="155">
+  <cellStyles count="167">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -414,6 +445,12 @@
     <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -491,6 +528,12 @@
     <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2253,7 +2296,180 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K7" sqref="A1:XFD1048576"/>
+      <selection activeCell="L8" sqref="L8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="12" max="12" width="18.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="5">
+        <v>43390</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="3">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="G6" s="3">
+        <v>500</v>
+      </c>
+      <c r="H6" s="3">
+        <f>G6*F6</f>
+        <v>5100</v>
+      </c>
+      <c r="I6" s="3">
+        <v>500</v>
+      </c>
+      <c r="J6" s="3">
+        <f>G6*F6</f>
+        <v>5100</v>
+      </c>
+      <c r="K6" s="3">
+        <f>F6*0.9</f>
+        <v>9.18</v>
+      </c>
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="1">
+        <v>43404</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7">
+        <v>400</v>
+      </c>
+      <c r="H7">
+        <f>F7*G7</f>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f>I6+G7</f>
+        <v>900</v>
+      </c>
+      <c r="J7">
+        <f>I7*F7</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I38" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2351,31 +2567,31 @@
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="5">
-        <v>43390</v>
+        <v>43392</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F6" s="3">
-        <v>10.199999999999999</v>
+        <v>5.05</v>
       </c>
       <c r="G6" s="3">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="H6" s="3">
         <f>G6*F6</f>
-        <v>5100</v>
+        <v>5050</v>
       </c>
       <c r="I6" s="3">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="J6" s="3">
-        <f>G6*F6</f>
-        <v>5100</v>
+        <f>H6</f>
+        <v>5050</v>
       </c>
       <c r="K6" s="3">
         <f>F6*0.9</f>
-        <v>9.18</v>
+        <v>4.5449999999999999</v>
       </c>
       <c r="L6" s="3"/>
     </row>
@@ -2416,12 +2632,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2519,59 +2735,33 @@
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="5">
-        <v>43392</v>
+        <v>43403</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F6" s="3">
-        <v>5.05</v>
+        <v>29.26</v>
       </c>
       <c r="G6" s="3">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="H6" s="3">
         <f>G6*F6</f>
-        <v>5050</v>
+        <v>5852</v>
       </c>
       <c r="I6" s="3">
         <v>1000</v>
       </c>
       <c r="J6" s="3">
         <f>H6</f>
-        <v>5050</v>
+        <v>5852</v>
       </c>
       <c r="K6" s="3">
         <f>F6*0.9</f>
-        <v>4.5449999999999999</v>
+        <v>26.334000000000003</v>
       </c>
       <c r="L6" s="3"/>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="5">
-        <v>43385</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3">
-        <v>0</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J7" s="3">
-        <v>0</v>
-      </c>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4297,10 +4487,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:C4"/>
+  <dimension ref="B3:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4322,8 +4512,27 @@
         <v>6.8760000000000003</v>
       </c>
     </row>
+    <row r="5" spans="2:3">
+      <c r="B5">
+        <v>6.14</v>
+      </c>
+      <c r="C5">
+        <f>B5*0.7+0.08*(10-B5)</f>
+        <v>4.6067999999999989</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6">
+        <v>8.33</v>
+      </c>
+      <c r="C6">
+        <f>B6*0.7+0.08*(10-B6)</f>
+        <v>5.9645999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4334,10 +4543,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C5:M7"/>
+  <dimension ref="C5:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4374,7 +4583,7 @@
         <v>17</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="3:13">
@@ -4411,7 +4620,7 @@
     </row>
     <row r="7" spans="3:13">
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" s="1">
         <v>43389</v>
@@ -4442,8 +4651,49 @@
         <v>6.516</v>
       </c>
     </row>
+    <row r="8" spans="3:13">
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1">
+        <v>43403</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8">
+        <v>6.61</v>
+      </c>
+      <c r="G8">
+        <v>700</v>
+      </c>
+      <c r="H8">
+        <f>F8*G8</f>
+        <v>4627</v>
+      </c>
+      <c r="I8">
+        <f>I7-G8</f>
+        <v>700</v>
+      </c>
+      <c r="J8">
+        <f>I8*F8</f>
+        <v>4627</v>
+      </c>
+      <c r="K8">
+        <f>F8*0.9</f>
+        <v>5.9490000000000007</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8">
+        <f>-(F6-F8)*G8</f>
+        <v>-573.99999999999955</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4456,8 +4706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D5:L7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4525,21 +4775,20 @@
     </row>
     <row r="7" spans="4:12">
       <c r="D7" s="1">
-        <v>43385</v>
+        <v>43404</v>
       </c>
       <c r="E7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="H7">
         <f>F7*G7</f>
         <v>0</v>
       </c>
       <c r="I7">
-        <f>I6+G7</f>
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="J7">
         <f>I7*F7</f>
@@ -4548,6 +4797,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
